--- a/仕様書/オロチ仕様.xlsx
+++ b/仕様書/オロチ仕様.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -357,6 +357,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>落下したら下のレーンに移動する</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -7357,8 +7370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q153" sqref="Q153"/>
+    <sheetView tabSelected="1" topLeftCell="B92" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z108" sqref="Z108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9555,6 +9568,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="108" spans="26:26" x14ac:dyDescent="0.4">
+      <c r="Z108" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="117" spans="27:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="AA117" s="6" t="s">
         <v>27</v>
